--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/201.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/201.xlsx
@@ -479,13 +479,13 @@
         <v>-12.52979158477232</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.71797679942229</v>
+        <v>-14.70682215740114</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05211007914916183</v>
+        <v>-0.06143179877247079</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.2009260255352</v>
+        <v>-11.18606626180985</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.35402668544164</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.87012245074598</v>
+        <v>-14.86008065446638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01919060212687834</v>
+        <v>0.008598929127921947</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.90540656579176</v>
+        <v>-10.89154181708238</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.10773210908173</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.23346003920957</v>
+        <v>-15.22246250482252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0551813426387833</v>
+        <v>0.04542757702169738</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.54265813095606</v>
+        <v>-10.52757579808239</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.79203841291045</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.74518578808127</v>
+        <v>-15.7331146848612</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1854497559139577</v>
+        <v>0.1742820215899653</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.35744132265416</v>
+        <v>-10.34170437463841</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.39992607019383</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.23157793095424</v>
+        <v>-16.21865582804945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1758400056281307</v>
+        <v>0.1651959634178075</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.20005875019377</v>
+        <v>-10.18366718703593</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.93750458106136</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.80612054886054</v>
+        <v>-16.79116913901529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3167917380221536</v>
+        <v>0.3029008047070822</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.05216809729363</v>
+        <v>-10.03590745716421</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.41594781201445</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.39532654594958</v>
+        <v>-17.37864695212922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4639492219631546</v>
+        <v>0.4515115342635148</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.846618942678534</v>
+        <v>-9.830423764063319</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.847672523388711</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.12642692123725</v>
+        <v>-18.10753472823664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7446481948897615</v>
+        <v>0.7305739693349059</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.883892728868929</v>
+        <v>-9.867409519591195</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.247941291046544</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.61154911073457</v>
+        <v>-18.59137387205547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7834014113012706</v>
+        <v>0.7710684620243647</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.536475380660885</v>
+        <v>-9.520672971130923</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.635024574663456</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.21852136277983</v>
+        <v>-19.19678814006257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9089042263420568</v>
+        <v>0.8965843693679926</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.490364290052327</v>
+        <v>-9.473946542288802</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.026299323943686</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.76640805210038</v>
+        <v>-19.74412495266376</v>
       </c>
       <c r="F12" t="n">
-        <v>1.070201397352122</v>
+        <v>1.056258094825684</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.999272010459181</v>
+        <v>-8.982631693547347</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.439470735822584</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.58110278103247</v>
+        <v>-20.55773302045999</v>
       </c>
       <c r="F13" t="n">
-        <v>1.256792897452402</v>
+        <v>1.241828395304309</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.511204052822475</v>
+        <v>-8.492482059758807</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.89988978301158</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.41328882656111</v>
+        <v>-21.38977505065737</v>
       </c>
       <c r="F14" t="n">
-        <v>1.580604823636813</v>
+        <v>1.563951414422137</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.059558881691451</v>
+        <v>-8.038283889573647</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.422901077636618</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.23782896723017</v>
+        <v>-22.2137391300014</v>
       </c>
       <c r="F15" t="n">
-        <v>1.694795889022347</v>
+        <v>1.677461680059902</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.623035320342621</v>
+        <v>-7.599521544438881</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.018966004571124</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.09403938847337</v>
+        <v>-23.07059107408384</v>
       </c>
       <c r="F16" t="n">
-        <v>1.974368923904566</v>
+        <v>1.956327730588667</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.041422858901782</v>
+        <v>-7.019611082367466</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.69337910914851</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.70615691553543</v>
+        <v>-23.6832715701681</v>
       </c>
       <c r="F17" t="n">
-        <v>2.165359437759666</v>
+        <v>2.147056398386933</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.956283613522037</v>
+        <v>-6.933712483422902</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.444340156995631</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.51964715260608</v>
+        <v>-24.49610719209666</v>
       </c>
       <c r="F18" t="n">
-        <v>2.584863005414253</v>
+        <v>2.56459612061526</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.555109269845866</v>
+        <v>-6.532616693563781</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.26660214208345</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.37182514457403</v>
+        <v>-25.34719852292875</v>
       </c>
       <c r="F19" t="n">
-        <v>2.850584383889925</v>
+        <v>2.830003283822732</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.250176444359225</v>
+        <v>-6.228731252304478</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.15829293786251</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.12502532705853</v>
+        <v>-26.10035942850472</v>
       </c>
       <c r="F20" t="n">
-        <v>3.072315624817398</v>
+        <v>3.051786893961571</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.142020930583726</v>
+        <v>-6.117957277960634</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.113753360391208</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.70923006446203</v>
+        <v>-26.68445942748549</v>
       </c>
       <c r="F21" t="n">
-        <v>3.388599476867816</v>
+        <v>3.368856284182493</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.808978930895898</v>
+        <v>-5.786525631522338</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.12498876591108</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.29596161631399</v>
+        <v>-27.27099459479481</v>
       </c>
       <c r="F22" t="n">
-        <v>3.591844386182771</v>
+        <v>3.573829377472556</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.668014106199034</v>
+        <v>-5.64257576177756</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.183325988094298</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.74125702056677</v>
+        <v>-27.71741593709199</v>
       </c>
       <c r="F23" t="n">
-        <v>3.773984503316864</v>
+        <v>3.756283709874851</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.467531672783682</v>
+        <v>-5.443062158772496</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.278588348714839</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.97119713537601</v>
+        <v>-27.94705492893587</v>
       </c>
       <c r="F24" t="n">
-        <v>3.910196822082182</v>
+        <v>3.892286551794701</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.305736994265631</v>
+        <v>-5.280913988077719</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.399763686971647</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.2372065445142</v>
+        <v>-28.21384987624456</v>
       </c>
       <c r="F25" t="n">
-        <v>4.22572132056778</v>
+        <v>4.207653942646199</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.010911426572802</v>
+        <v>-4.986913235463918</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.539961763441972</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.19682988255032</v>
+        <v>-28.17364341421762</v>
       </c>
       <c r="F26" t="n">
-        <v>4.389165629243889</v>
+        <v>4.369396251952883</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.016266178435068</v>
+        <v>-4.991351526127263</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.692222937705626</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.08750915382191</v>
+        <v>-28.06510822365971</v>
       </c>
       <c r="F27" t="n">
-        <v>4.3400956781931</v>
+        <v>4.321556977369215</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.827396617640328</v>
+        <v>-4.805139702809393</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.847946824589042</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.03744418775514</v>
+        <v>-28.01431008863381</v>
       </c>
       <c r="F28" t="n">
-        <v>4.316869932951877</v>
+        <v>4.300059416103101</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.740306619137166</v>
+        <v>-4.719790980584182</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.999267888796466</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.82181395995191</v>
+        <v>-27.80012001414318</v>
       </c>
       <c r="F29" t="n">
-        <v>4.304406060646555</v>
+        <v>4.28806686670008</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.619215910154042</v>
+        <v>-4.599656009708503</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.138896980239604</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.67516707582174</v>
+        <v>-27.6541015605494</v>
       </c>
       <c r="F30" t="n">
-        <v>4.204983112866486</v>
+        <v>4.190110256838286</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.572633496643181</v>
+        <v>-4.553204519226059</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.258519461758905</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.22929561024392</v>
+        <v>-27.20906800235345</v>
       </c>
       <c r="F31" t="n">
-        <v>4.058611167095989</v>
+        <v>4.044576218449659</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.660849433190731</v>
+        <v>-4.643436670411235</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.355171725081774</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.85171359628854</v>
+        <v>-26.83241554189983</v>
       </c>
       <c r="F32" t="n">
-        <v>3.971521168592827</v>
+        <v>3.958271758117001</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.740660111313892</v>
+        <v>-4.723456825379865</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.429927399457324</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.43201364409133</v>
+        <v>-26.41272868200546</v>
       </c>
       <c r="F33" t="n">
-        <v>3.837901125790171</v>
+        <v>3.824939745976862</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.671074521710119</v>
+        <v>-4.658309526439436</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.482816815799607</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.94474431692797</v>
+        <v>-25.92608778537851</v>
       </c>
       <c r="F34" t="n">
-        <v>3.707004281978594</v>
+        <v>3.695037917181256</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.488659466216349</v>
+        <v>-4.477949962491818</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.515412257844758</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.53636920668885</v>
+        <v>-25.51878624397241</v>
       </c>
       <c r="F35" t="n">
-        <v>3.46812212432846</v>
+        <v>3.455841544262921</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.492338403314874</v>
+        <v>-4.483540375805235</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.529698620152423</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.84750460036859</v>
+        <v>-24.82981689922941</v>
       </c>
       <c r="F36" t="n">
-        <v>3.248407098038613</v>
+        <v>3.2381427326107</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.760599688541841</v>
+        <v>-4.752770491442489</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.525649373982498</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.36754077819091</v>
+        <v>-24.35084809206771</v>
       </c>
       <c r="F37" t="n">
-        <v>3.118583823060058</v>
+        <v>3.107821950124158</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.752469368477129</v>
+        <v>-4.746368355352885</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.504374230262414</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.95145430157801</v>
+        <v>-23.93562570744237</v>
       </c>
       <c r="F38" t="n">
-        <v>3.045319296357758</v>
+        <v>3.034871638690061</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.897361884026513</v>
+        <v>-4.890488425034606</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.470385087921257</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.45128905611555</v>
+        <v>-23.43591869257937</v>
       </c>
       <c r="F39" t="n">
-        <v>3.017380322093515</v>
+        <v>3.006697002974666</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.767041101539971</v>
+        <v>-4.761450688226554</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.425499186676773</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.06764530594445</v>
+        <v>-23.05277244991625</v>
       </c>
       <c r="F40" t="n">
-        <v>3.109497764887899</v>
+        <v>3.096614938891641</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.751644553398101</v>
+        <v>-4.747455016488749</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.370589224857597</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.53689644104372</v>
+        <v>-22.52233780028372</v>
       </c>
       <c r="F41" t="n">
-        <v>3.12497286684682</v>
+        <v>3.113451640346101</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.679584518557241</v>
+        <v>-4.675460443162097</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.306126939852148</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.85948759970997</v>
+        <v>-21.84613345081141</v>
       </c>
       <c r="F42" t="n">
-        <v>3.219446924152715</v>
+        <v>3.208580312794082</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.707379477490225</v>
+        <v>-4.702915002221197</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.231116116920796</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.19620535314245</v>
+        <v>-21.18308686569504</v>
       </c>
       <c r="F43" t="n">
-        <v>3.337853711053286</v>
+        <v>3.326829992060552</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.751840937940726</v>
+        <v>-4.746355263050043</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.144699348881286</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.9062370298039</v>
+        <v>-20.89385171131562</v>
       </c>
       <c r="F44" t="n">
-        <v>3.243824792044009</v>
+        <v>3.233691349644513</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.80261288836094</v>
+        <v>-4.797794920915186</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.049710715330288</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.41900697954906</v>
+        <v>-20.40761667607676</v>
       </c>
       <c r="F45" t="n">
-        <v>3.371684221596306</v>
+        <v>3.360529579575155</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.749877092514468</v>
+        <v>-4.745792294027849</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.949771793395077</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.09167322390023</v>
+        <v>-20.0797723206171</v>
       </c>
       <c r="F46" t="n">
-        <v>3.399570826649182</v>
+        <v>3.388678030684866</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.722789117934937</v>
+        <v>-4.721348964622347</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.846966478314061</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.54708579489579</v>
+        <v>-19.53645484498831</v>
       </c>
       <c r="F47" t="n">
-        <v>3.406850147029182</v>
+        <v>3.396481043178535</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.992176341206292</v>
+        <v>-4.991587187578415</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.743299210492928</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.07171737101556</v>
+        <v>-19.06149228249617</v>
       </c>
       <c r="F48" t="n">
-        <v>3.335732757992926</v>
+        <v>3.326096823101416</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107296960093589</v>
+        <v>-5.106930375614021</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.640302750383937</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.68648945220061</v>
+        <v>-18.67453617970611</v>
       </c>
       <c r="F49" t="n">
-        <v>3.354585674085012</v>
+        <v>3.345159216038969</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.396375006838901</v>
+        <v>-5.395275253400196</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.537974266808904</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.17139898149858</v>
+        <v>-18.16000867802628</v>
       </c>
       <c r="F50" t="n">
-        <v>3.497710728750761</v>
+        <v>3.486451348306876</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.308643485496495</v>
+        <v>-5.311157207642106</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.439005356361399</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.50710862761224</v>
+        <v>-17.49519463202627</v>
       </c>
       <c r="F51" t="n">
-        <v>3.515647183643925</v>
+        <v>3.503576080423854</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.521419591280226</v>
+        <v>-5.524011867242889</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.349578373114535</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.11453592690308</v>
+        <v>-17.102962331191</v>
       </c>
       <c r="F52" t="n">
-        <v>3.343404847458177</v>
+        <v>3.332407313071128</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816192789761689</v>
+        <v>-5.815734559162228</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.272890457620171</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.72526248651004</v>
+        <v>-16.71299499874734</v>
       </c>
       <c r="F53" t="n">
-        <v>3.377261542606881</v>
+        <v>3.366970992573284</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.84570284036694</v>
+        <v>-5.845846855698198</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.211765961909418</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.53018717416833</v>
+        <v>-16.51629624085325</v>
       </c>
       <c r="F54" t="n">
-        <v>3.111749640976676</v>
+        <v>3.101904229239699</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.021283713777328</v>
+        <v>-6.022619128667184</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.168219154718113</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.2410436659088</v>
+        <v>-16.2261708098806</v>
       </c>
       <c r="F55" t="n">
-        <v>2.964723080064092</v>
+        <v>2.954589637664597</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.162183076959984</v>
+        <v>-6.164997922070955</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.140840230652588</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.91360517183724</v>
+        <v>-15.8971219625595</v>
       </c>
       <c r="F56" t="n">
-        <v>2.911070823018699</v>
+        <v>2.900885011407836</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475102207180079</v>
+        <v>-6.475560437779539</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.129235380447688</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.36679205134971</v>
+        <v>-15.35045285740323</v>
       </c>
       <c r="F57" t="n">
-        <v>2.949562193373374</v>
+        <v>2.937726751604453</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.732365958019996</v>
+        <v>-6.733020573162082</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.135251507533306</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.16595612575763</v>
+        <v>-15.14862191679518</v>
       </c>
       <c r="F58" t="n">
-        <v>2.791852313341942</v>
+        <v>2.779597917882086</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708681982179313</v>
+        <v>-6.70895692053899</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.157908629537385</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.82227008385948</v>
+        <v>-14.80428125975494</v>
       </c>
       <c r="F59" t="n">
-        <v>2.919711742894239</v>
+        <v>2.905912455699059</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.81802889551341</v>
+        <v>-6.818853710592438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.194659910255069</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.76814650391178</v>
+        <v>-14.74897937255149</v>
       </c>
       <c r="F60" t="n">
-        <v>2.738645194593167</v>
+        <v>2.724819722792304</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823710954946719</v>
+        <v>-6.823671678038194</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.2422842173574</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.42354400081471</v>
+        <v>-14.40470417702547</v>
       </c>
       <c r="F61" t="n">
-        <v>2.624846898292884</v>
+        <v>2.61086431885792</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.233120357110335</v>
+        <v>-7.231457634649436</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.295273620312619</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.21952664563209</v>
+        <v>-14.19870988411375</v>
       </c>
       <c r="F62" t="n">
-        <v>2.579521345854828</v>
+        <v>2.564857966672095</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176404501199977</v>
+        <v>-7.176744901073862</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.348512456991945</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.90080762525311</v>
+        <v>-13.87982066379782</v>
       </c>
       <c r="F63" t="n">
-        <v>2.506989988111666</v>
+        <v>2.492405162745983</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.379741056634825</v>
+        <v>-7.378392549442127</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.400408005816085</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.71500166332333</v>
+        <v>-13.69283639461229</v>
       </c>
       <c r="F64" t="n">
-        <v>2.419271559072101</v>
+        <v>2.404136856987066</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.391772882946372</v>
+        <v>-7.393920020612414</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.449550828613635</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.5259749948945</v>
+        <v>-13.50335149558399</v>
       </c>
       <c r="F65" t="n">
-        <v>2.17214125063168</v>
+        <v>2.16046291649686</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742135999293803</v>
+        <v>-7.741900337842652</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.493314318065109</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.31103865914188</v>
+        <v>-13.28797002153476</v>
       </c>
       <c r="F66" t="n">
-        <v>2.105710906012762</v>
+        <v>2.093980202666575</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.783952814570275</v>
+        <v>-7.785327506368657</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.528801828212286</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.1416111680671</v>
+        <v>-13.11831996131167</v>
       </c>
       <c r="F67" t="n">
-        <v>2.387273970926923</v>
+        <v>2.370830038557715</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.865282199823078</v>
+        <v>-7.864287184807107</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.552852391754213</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.09296017070725</v>
+        <v>-13.0688179642671</v>
       </c>
       <c r="F68" t="n">
-        <v>2.092409126325568</v>
+        <v>2.079159715849741</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.762088668824593</v>
+        <v>-7.763450268320133</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.561196353401204</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.95289871490646</v>
+        <v>-12.92858630852938</v>
       </c>
       <c r="F69" t="n">
-        <v>2.156168641164774</v>
+        <v>2.139358124315998</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.834397457419446</v>
+        <v>-7.835772149217827</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.552896951685036</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.93243544556484</v>
+        <v>-12.90649959363538</v>
       </c>
       <c r="F70" t="n">
-        <v>2.153366888356645</v>
+        <v>2.137577571129523</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.742424029956321</v>
+        <v>-7.744479521502472</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.529395740450525</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.62540785162352</v>
+        <v>-12.60027063016741</v>
       </c>
       <c r="F71" t="n">
-        <v>2.109324381597078</v>
+        <v>2.093168479890388</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.446891477910038</v>
+        <v>-7.452010568321153</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.490803288953771</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.55717076921245</v>
+        <v>-12.53226920920749</v>
       </c>
       <c r="F72" t="n">
-        <v>2.116839363428229</v>
+        <v>2.10159992292046</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.513583668585791</v>
+        <v>-7.517406621015574</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.437849390730742</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.23313627387973</v>
+        <v>-12.2142702654848</v>
       </c>
       <c r="F73" t="n">
-        <v>2.093037556861971</v>
+        <v>2.077719562537152</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.243149061087097</v>
+        <v>-7.250101073896054</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.372615952683748</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.43517669133325</v>
+        <v>-12.4161797599099</v>
       </c>
       <c r="F74" t="n">
-        <v>2.116210932891826</v>
+        <v>2.101390446074992</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.194236217670408</v>
+        <v>-7.199865907892351</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.295540010606797</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.56808974978245</v>
+        <v>-12.54900117223921</v>
       </c>
       <c r="F75" t="n">
-        <v>2.048209511931901</v>
+        <v>2.033362840509384</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.123891274501815</v>
+        <v>-7.128303380559476</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.210144502139257</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.8244239471206</v>
+        <v>-12.80698499973542</v>
       </c>
       <c r="F76" t="n">
-        <v>2.027235642779456</v>
+        <v>2.013357801767226</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.772768804589563</v>
+        <v>-6.780336155632081</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.123627054778822</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.39895347272407</v>
+        <v>-13.38227387890371</v>
       </c>
       <c r="F77" t="n">
-        <v>2.020689491358593</v>
+        <v>2.006418881261111</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.719129639847011</v>
+        <v>-6.724314191772335</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.041238270359091</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.89005884462006</v>
+        <v>-13.8741647889702</v>
       </c>
       <c r="F78" t="n">
-        <v>2.071880395469742</v>
+        <v>2.057138462469958</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.739187047800535</v>
+        <v>-6.74119017013532</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.967657402945808</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.3783886483136</v>
+        <v>-14.36265170029784</v>
       </c>
       <c r="F79" t="n">
-        <v>2.116446594342977</v>
+        <v>2.102018876611395</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644896282734424</v>
+        <v>-6.645262867213993</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.906974510469983</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.9265109990853</v>
+        <v>-14.91097043561217</v>
       </c>
       <c r="F80" t="n">
-        <v>2.003014882522263</v>
+        <v>1.990603379428306</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.290762583168576</v>
+        <v>-6.292896628531778</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.861052194618165</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69823679009084</v>
+        <v>-15.68294498037171</v>
       </c>
       <c r="F81" t="n">
-        <v>2.102725860964848</v>
+        <v>2.089555004306072</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.234216927195161</v>
+        <v>-6.235159572999765</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.83132306639948</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.42658778178175</v>
+        <v>-16.41181966417628</v>
       </c>
       <c r="F82" t="n">
-        <v>2.072404087583411</v>
+        <v>2.060542461208807</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.133118164651353</v>
+        <v>-6.134388118026999</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.822494530370433</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.30340548769783</v>
+        <v>-17.28846717015541</v>
       </c>
       <c r="F83" t="n">
-        <v>2.054179602027728</v>
+        <v>2.041768098933772</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.836839351343091</v>
+        <v>-5.838842473677875</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.838035303457737</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.35666815901185</v>
+        <v>-18.34209642594901</v>
       </c>
       <c r="F84" t="n">
-        <v>2.064365413638591</v>
+        <v>2.053472617674275</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727793560974355</v>
+        <v>-5.728199422362448</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.880014303322716</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.15552120150544</v>
+        <v>-19.14121131449944</v>
       </c>
       <c r="F85" t="n">
-        <v>2.091806880394849</v>
+        <v>2.08020710007708</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.592419149590907</v>
+        <v>-5.591358673060728</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.949878942463877</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.30573237536245</v>
+        <v>-20.29015253498079</v>
       </c>
       <c r="F86" t="n">
-        <v>2.079290638878159</v>
+        <v>2.06784796619449</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252961921510634</v>
+        <v>-5.252765536968008</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.047551334181891</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.37189096497557</v>
+        <v>-21.35616710926265</v>
       </c>
       <c r="F87" t="n">
-        <v>1.896338798967879</v>
+        <v>1.889059478587879</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.889310117778851</v>
+        <v>-4.890959747936908</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.170937833837166</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.71323666801893</v>
+        <v>-22.69795795060264</v>
       </c>
       <c r="F88" t="n">
-        <v>1.991834055895428</v>
+        <v>1.983690643527875</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661936094326594</v>
+        <v>-4.661896817418069</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.32139286085726</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.0912015421106</v>
+        <v>-24.07771647018362</v>
       </c>
       <c r="F89" t="n">
-        <v>1.860649181421333</v>
+        <v>1.850960877318456</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.275778622009883</v>
+        <v>-4.276681990905963</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.500075031606748</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.55963422883859</v>
+        <v>-25.54655501829971</v>
       </c>
       <c r="F90" t="n">
-        <v>1.644154861630551</v>
+        <v>1.635828157023213</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.16486063233478</v>
+        <v>-4.164088186467119</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.705048494845175</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.20263968165817</v>
+        <v>-27.18978304026759</v>
       </c>
       <c r="F91" t="n">
-        <v>1.437898722661999</v>
+        <v>1.430409925436531</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.061392162976619</v>
+        <v>-4.06192894739313</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.932978414084138</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.79262130796874</v>
+        <v>-28.78201654266695</v>
       </c>
       <c r="F92" t="n">
-        <v>1.313783691722435</v>
+        <v>1.307093524970314</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.790721894026774</v>
+        <v>-3.791769278254113</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.179081556069549</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6400107004505</v>
+        <v>-30.63032239634762</v>
       </c>
       <c r="F93" t="n">
-        <v>1.174429220275103</v>
+        <v>1.168066361094024</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.779658898125516</v>
+        <v>-3.781766758883034</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.43347812687431</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.71525853158966</v>
+        <v>-32.70690564237664</v>
       </c>
       <c r="F94" t="n">
-        <v>1.059910847318525</v>
+        <v>1.054019311039748</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.772117731688682</v>
+        <v>-3.775142053645121</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.69121557308163</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.74374065697817</v>
+        <v>-34.73667081344364</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6559478431370674</v>
+        <v>0.6499253838298734</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.756747368152495</v>
+        <v>-3.760164459194186</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.950427282479684</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.71241714298568</v>
+        <v>-36.70635540676996</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4344784482664292</v>
+        <v>0.4272514970977964</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.971317119425544</v>
+        <v>-3.973961764599573</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.204761729548571</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.79917310832271</v>
+        <v>-38.79406711021444</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05045502131292019</v>
+        <v>0.04438019279435929</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.96461386037058</v>
+        <v>-3.969130704850976</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.45353534132875</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01696993280258</v>
+        <v>-41.01444311835413</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1570317941227545</v>
+        <v>-0.1642194683828622</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.164533324763737</v>
+        <v>-4.169194184575391</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.688702389051678</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39416554438047</v>
+        <v>-43.39258137573662</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07796737726157081</v>
+        <v>-0.08507649770462807</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.493844018141673</v>
+        <v>-4.49829540110786</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.913030655969824</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79611870063206</v>
+        <v>-45.79619725444911</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3516357835621708</v>
+        <v>-0.3561395357397246</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.674687997294435</v>
+        <v>-4.680422425939111</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.112130398515443</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19460239663059</v>
+        <v>-48.19475950426469</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.284092593201706</v>
+        <v>-0.2904947292913101</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.94869680346892</v>
+        <v>-4.956120139180179</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.309140308385809</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40768599208744</v>
+        <v>-50.40944036066823</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4316559385308005</v>
+        <v>-0.4375736594152607</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.308591116285128</v>
+        <v>-5.315189636917358</v>
       </c>
     </row>
   </sheetData>
